--- a/stock_historical_data/1mo/ZFCVINDIA.NS.xlsx
+++ b/stock_historical_data/1mo/ZFCVINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:Q263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>2</v>
       </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>2</v>
       </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8968,6 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9018,6 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9068,6 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9118,6 +9636,9 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9168,6 +9689,9 @@
       <c r="P174" t="n">
         <v>0</v>
       </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9218,6 +9742,9 @@
       <c r="P175" t="n">
         <v>0</v>
       </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9268,6 +9795,9 @@
       <c r="P176" t="n">
         <v>0</v>
       </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9318,6 +9848,9 @@
       <c r="P177" t="n">
         <v>0</v>
       </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9368,6 +9901,9 @@
       <c r="P178" t="n">
         <v>0</v>
       </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9418,6 +9954,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9468,6 +10007,9 @@
       <c r="P180" t="n">
         <v>0</v>
       </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9518,6 +10060,9 @@
       <c r="P181" t="n">
         <v>0</v>
       </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9568,6 +10113,9 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9618,6 +10166,9 @@
       <c r="P183" t="n">
         <v>0</v>
       </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9668,6 +10219,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9718,6 +10272,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9768,6 +10325,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9818,6 +10378,9 @@
       <c r="P187" t="n">
         <v>0</v>
       </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9868,6 +10431,9 @@
       <c r="P188" t="n">
         <v>0</v>
       </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9918,6 +10484,9 @@
       <c r="P189" t="n">
         <v>0</v>
       </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9968,6 +10537,9 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10018,6 +10590,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10068,6 +10643,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10118,6 +10696,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10168,6 +10749,9 @@
       <c r="P194" t="n">
         <v>0</v>
       </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10218,6 +10802,9 @@
       <c r="P195" t="n">
         <v>0</v>
       </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10268,6 +10855,9 @@
       <c r="P196" t="n">
         <v>0</v>
       </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10318,6 +10908,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10368,6 +10961,9 @@
       <c r="P198" t="n">
         <v>0</v>
       </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10418,6 +11014,9 @@
       <c r="P199" t="n">
         <v>0</v>
       </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10468,6 +11067,9 @@
       <c r="P200" t="n">
         <v>0</v>
       </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10518,6 +11120,9 @@
       <c r="P201" t="n">
         <v>0</v>
       </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10568,6 +11173,9 @@
       <c r="P202" t="n">
         <v>0</v>
       </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10618,6 +11226,9 @@
       <c r="P203" t="n">
         <v>0</v>
       </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10668,6 +11279,9 @@
       <c r="P204" t="n">
         <v>0</v>
       </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10718,6 +11332,9 @@
       <c r="P205" t="n">
         <v>0</v>
       </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10768,6 +11385,9 @@
       <c r="P206" t="n">
         <v>0</v>
       </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10818,6 +11438,9 @@
       <c r="P207" t="n">
         <v>0</v>
       </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10868,6 +11491,9 @@
       <c r="P208" t="n">
         <v>0</v>
       </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10918,6 +11544,9 @@
       <c r="P209" t="n">
         <v>0</v>
       </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10968,6 +11597,9 @@
       <c r="P210" t="n">
         <v>0</v>
       </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11018,6 +11650,9 @@
       <c r="P211" t="n">
         <v>0</v>
       </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11068,6 +11703,9 @@
       <c r="P212" t="n">
         <v>0</v>
       </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11118,6 +11756,9 @@
       <c r="P213" t="n">
         <v>0</v>
       </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11168,6 +11809,9 @@
       <c r="P214" t="n">
         <v>0</v>
       </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11218,6 +11862,9 @@
       <c r="P215" t="n">
         <v>0</v>
       </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11268,6 +11915,9 @@
       <c r="P216" t="n">
         <v>0</v>
       </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11318,6 +11968,9 @@
       <c r="P217" t="n">
         <v>0</v>
       </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11368,6 +12021,9 @@
       <c r="P218" t="n">
         <v>0</v>
       </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11418,6 +12074,9 @@
       <c r="P219" t="n">
         <v>0</v>
       </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11468,6 +12127,9 @@
       <c r="P220" t="n">
         <v>0</v>
       </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11518,6 +12180,9 @@
       <c r="P221" t="n">
         <v>0</v>
       </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11568,6 +12233,9 @@
       <c r="P222" t="n">
         <v>0</v>
       </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11618,6 +12286,9 @@
       <c r="P223" t="n">
         <v>0</v>
       </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11668,6 +12339,9 @@
       <c r="P224" t="n">
         <v>0</v>
       </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11718,6 +12392,9 @@
       <c r="P225" t="n">
         <v>0</v>
       </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11768,6 +12445,9 @@
       <c r="P226" t="n">
         <v>0</v>
       </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11818,6 +12498,9 @@
       <c r="P227" t="n">
         <v>0</v>
       </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11868,6 +12551,9 @@
       <c r="P228" t="n">
         <v>0</v>
       </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11918,6 +12604,9 @@
       <c r="P229" t="n">
         <v>0</v>
       </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11968,6 +12657,9 @@
       <c r="P230" t="n">
         <v>0</v>
       </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12018,6 +12710,9 @@
       <c r="P231" t="n">
         <v>0</v>
       </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12068,6 +12763,9 @@
       <c r="P232" t="n">
         <v>0</v>
       </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12118,6 +12816,9 @@
       <c r="P233" t="n">
         <v>0</v>
       </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12168,6 +12869,9 @@
       <c r="P234" t="n">
         <v>0</v>
       </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12218,6 +12922,9 @@
       <c r="P235" t="n">
         <v>0</v>
       </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12268,6 +12975,9 @@
       <c r="P236" t="n">
         <v>0</v>
       </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12318,6 +13028,9 @@
       <c r="P237" t="n">
         <v>0</v>
       </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12368,6 +13081,9 @@
       <c r="P238" t="n">
         <v>0</v>
       </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12418,6 +13134,9 @@
       <c r="P239" t="n">
         <v>0</v>
       </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12468,6 +13187,9 @@
       <c r="P240" t="n">
         <v>0</v>
       </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12518,6 +13240,9 @@
       <c r="P241" t="n">
         <v>0</v>
       </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12568,6 +13293,9 @@
       <c r="P242" t="n">
         <v>0</v>
       </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12618,6 +13346,9 @@
       <c r="P243" t="n">
         <v>0</v>
       </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12668,6 +13399,9 @@
       <c r="P244" t="n">
         <v>0</v>
       </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12718,6 +13452,9 @@
       <c r="P245" t="n">
         <v>0</v>
       </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12768,6 +13505,9 @@
       <c r="P246" t="n">
         <v>0</v>
       </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12818,6 +13558,9 @@
       <c r="P247" t="n">
         <v>0</v>
       </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12868,6 +13611,9 @@
       <c r="P248" t="n">
         <v>0</v>
       </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12918,6 +13664,9 @@
       <c r="P249" t="n">
         <v>0</v>
       </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12968,6 +13717,9 @@
       <c r="P250" t="n">
         <v>0</v>
       </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13018,6 +13770,9 @@
       <c r="P251" t="n">
         <v>0</v>
       </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13068,6 +13823,9 @@
       <c r="P252" t="n">
         <v>0</v>
       </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13118,6 +13876,9 @@
       <c r="P253" t="n">
         <v>0</v>
       </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13168,6 +13929,9 @@
       <c r="P254" t="n">
         <v>0</v>
       </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13218,6 +13982,9 @@
       <c r="P255" t="n">
         <v>0</v>
       </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -13268,6 +14035,9 @@
       <c r="P256" t="n">
         <v>0</v>
       </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -13318,6 +14088,9 @@
       <c r="P257" t="n">
         <v>0</v>
       </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -13368,6 +14141,9 @@
       <c r="P258" t="n">
         <v>0</v>
       </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -13418,6 +14194,9 @@
       <c r="P259" t="n">
         <v>0</v>
       </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -13468,6 +14247,9 @@
       <c r="P260" t="n">
         <v>0</v>
       </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -13518,6 +14300,9 @@
       <c r="P261" t="n">
         <v>0</v>
       </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13568,6 +14353,60 @@
       <c r="P262" t="n">
         <v>0</v>
       </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B263" t="n">
+        <v>18200</v>
+      </c>
+      <c r="C263" t="n">
+        <v>18200</v>
+      </c>
+      <c r="D263" t="n">
+        <v>18200</v>
+      </c>
+      <c r="E263" t="n">
+        <v>18200</v>
+      </c>
+      <c r="F263" t="n">
+        <v>18200</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I263" t="n">
+        <v>6</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>22</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/ZFCVINDIA.NS.xlsx
+++ b/stock_historical_data/1mo/ZFCVINDIA.NS.xlsx
@@ -14406,7 +14406,9 @@
       <c r="P263" t="n">
         <v>0</v>
       </c>
-      <c r="Q263" t="inlineStr"/>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
